--- a/StructureDefinition-MLModel.xlsx
+++ b/StructureDefinition-MLModel.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>[Profile] - Communication Request</t>
+    <t>[Profile] - Machine Learning Model</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-13T16:38:37+00:00</t>
+    <t>2022-04-13T16:44:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>The profile for asking for input for a certian CDSS case</t>
+    <t>The profile for Defining Machine Learning Models for CDSS</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-MLModel.xlsx
+++ b/StructureDefinition-MLModel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2560" uniqueCount="411">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-13T16:44:13+00:00</t>
+    <t>2022-04-13T17:02:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1041,10 +1041,7 @@
     <t>The kind or type of device.</t>
   </si>
   <si>
-    <t>Codes to identify medical devices.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/device-type</t>
+    <t>http://hl7.org/fhir/us/example/ValueSet/ml-type-vs</t>
   </si>
   <si>
     <t>Device.specialization</t>
@@ -6684,13 +6681,11 @@
         <v>75</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X47" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="X47" s="2"/>
+      <c r="Y47" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>75</v>
@@ -6734,7 +6729,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6760,10 +6755,10 @@
         <v>203</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6814,7 +6809,7 @@
         <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
@@ -6840,7 +6835,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6946,7 +6941,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7054,7 +7049,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7164,7 +7159,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7190,10 +7185,10 @@
         <v>263</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7244,7 +7239,7 @@
         <v>75</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>82</v>
@@ -7270,7 +7265,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7296,10 +7291,10 @@
         <v>84</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7350,7 +7345,7 @@
         <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
@@ -7376,7 +7371,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7402,10 +7397,10 @@
         <v>203</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7456,7 +7451,7 @@
         <v>75</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
@@ -7482,7 +7477,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7588,7 +7583,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7696,7 +7691,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7806,7 +7801,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7832,10 +7827,10 @@
         <v>263</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7886,7 +7881,7 @@
         <v>75</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
@@ -7912,7 +7907,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7938,10 +7933,10 @@
         <v>191</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7992,7 +7987,7 @@
         <v>75</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>76</v>
@@ -8018,7 +8013,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8044,10 +8039,10 @@
         <v>84</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8098,7 +8093,7 @@
         <v>75</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>82</v>
@@ -8124,7 +8119,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8150,10 +8145,10 @@
         <v>203</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8204,7 +8199,7 @@
         <v>75</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
@@ -8230,7 +8225,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8336,7 +8331,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8444,7 +8439,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8554,7 +8549,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8580,10 +8575,10 @@
         <v>263</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8634,7 +8629,7 @@
         <v>75</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>82</v>
@@ -8660,7 +8655,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8683,13 +8678,13 @@
         <v>75</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8740,7 +8735,7 @@
         <v>75</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>76</v>
@@ -8766,7 +8761,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8792,10 +8787,10 @@
         <v>263</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8846,7 +8841,7 @@
         <v>75</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>76</v>
@@ -8872,7 +8867,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8895,17 +8890,17 @@
         <v>75</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>75</v>
@@ -8954,7 +8949,7 @@
         <v>75</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>76</v>
@@ -8969,10 +8964,10 @@
         <v>94</v>
       </c>
       <c r="AJ68" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AK68" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>75</v>
@@ -8980,7 +8975,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9003,13 +8998,13 @@
         <v>75</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9060,7 +9055,7 @@
         <v>75</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>76</v>
@@ -9075,10 +9070,10 @@
         <v>94</v>
       </c>
       <c r="AJ69" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AK69" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>75</v>
@@ -9086,7 +9081,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9109,16 +9104,16 @@
         <v>75</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9168,7 +9163,7 @@
         <v>75</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>76</v>
@@ -9183,10 +9178,10 @@
         <v>94</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>75</v>
@@ -9194,7 +9189,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9217,17 +9212,17 @@
         <v>75</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>75</v>
@@ -9276,7 +9271,7 @@
         <v>75</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>76</v>
@@ -9291,10 +9286,10 @@
         <v>94</v>
       </c>
       <c r="AJ71" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>75</v>
@@ -9302,7 +9297,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9328,13 +9323,13 @@
         <v>124</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9384,7 +9379,7 @@
         <v>75</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>76</v>
@@ -9399,10 +9394,10 @@
         <v>94</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>75</v>
@@ -9410,7 +9405,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9433,13 +9428,13 @@
         <v>75</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9490,7 +9485,7 @@
         <v>75</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>76</v>
@@ -9505,7 +9500,7 @@
         <v>94</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>75</v>
@@ -9516,7 +9511,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9542,10 +9537,10 @@
         <v>263</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9596,7 +9591,7 @@
         <v>75</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>76</v>
@@ -9622,7 +9617,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9645,13 +9640,13 @@
         <v>75</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9702,7 +9697,7 @@
         <v>75</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-MLModel.xlsx
+++ b/StructureDefinition-MLModel.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-13T17:02:09+00:00</t>
+    <t>2022-04-18T14:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MLModel.xlsx
+++ b/StructureDefinition-MLModel.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:20:50+00:00</t>
+    <t>2022-04-18T14:45:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MLModel.xlsx
+++ b/StructureDefinition-MLModel.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:45:03+00:00</t>
+    <t>2022-04-18T14:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MLModel.xlsx
+++ b/StructureDefinition-MLModel.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:58:53+00:00</t>
+    <t>2022-04-20T08:29:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MLModel.xlsx
+++ b/StructureDefinition-MLModel.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T08:29:01+00:00</t>
+    <t>2022-04-20T08:41:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MLModel.xlsx
+++ b/StructureDefinition-MLModel.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>[Profile] - Machine Learning Model</t>
+    <t>Machine Learning Model</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T08:41:13+00:00</t>
+    <t>2022-04-20T08:59:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MLModel.xlsx
+++ b/StructureDefinition-MLModel.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T08:59:23+00:00</t>
+    <t>2022-07-06T15:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MLModel.xlsx
+++ b/StructureDefinition-MLModel.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-06T15:59:32+00:00</t>
+    <t>2022-07-07T15:44:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MLModel.xlsx
+++ b/StructureDefinition-MLModel.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-07T15:44:13+00:00</t>
+    <t>2022-07-08T12:00:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MLModel.xlsx
+++ b/StructureDefinition-MLModel.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T12:00:34+00:00</t>
+    <t>2022-07-08T18:36:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MLModel.xlsx
+++ b/StructureDefinition-MLModel.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T18:36:24+00:00</t>
+    <t>2022-07-09T09:32:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MLModel.xlsx
+++ b/StructureDefinition-MLModel.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T09:32:33+00:00</t>
+    <t>2022-07-14T15:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1635,42 +1635,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.6015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="131.99609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="47.48828125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="47.4921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="61.3984375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="61.40234375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
   </cols>

--- a/StructureDefinition-MLModel.xlsx
+++ b/StructureDefinition-MLModel.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T15:59:36+00:00</t>
+    <t>2022-07-14T16:27:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MLModel.xlsx
+++ b/StructureDefinition-MLModel.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/example/StructureDefinition/MLModel</t>
+    <t>https://joofio.github.io/obs-cdss-fhir//StructureDefinition/MLModel</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T16:27:57+00:00</t>
+    <t>2022-07-15T07:25:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1041,7 +1041,7 @@
     <t>The kind or type of device.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/example/ValueSet/ml-type-vs</t>
+    <t>https://joofio.github.io/obs-cdss-fhir//ValueSet/ml-type-vs</t>
   </si>
   <si>
     <t>Device.specialization</t>
@@ -1659,7 +1659,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="47.4921875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.44921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-MLModel.xlsx
+++ b/StructureDefinition-MLModel.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T07:25:18+00:00</t>
+    <t>2022-07-15T07:32:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MLModel.xlsx
+++ b/StructureDefinition-MLModel.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://joofio.github.io/obs-cdss-fhir//StructureDefinition/MLModel</t>
+    <t>https://joofio.github.io/obs-cdss-fhir/StructureDefinition/MLModel</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T07:32:14+00:00</t>
+    <t>2022-07-15T07:33:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1041,7 +1041,7 @@
     <t>The kind or type of device.</t>
   </si>
   <si>
-    <t>https://joofio.github.io/obs-cdss-fhir//ValueSet/ml-type-vs</t>
+    <t>https://joofio.github.io/obs-cdss-fhir/ValueSet/ml-type-vs</t>
   </si>
   <si>
     <t>Device.specialization</t>
@@ -1659,7 +1659,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.44921875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.83203125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-MLModel.xlsx
+++ b/StructureDefinition-MLModel.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T07:33:23+00:00</t>
+    <t>2022-07-18T07:59:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MLModel.xlsx
+++ b/StructureDefinition-MLModel.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T07:59:46+00:00</t>
+    <t>2022-08-18T10:28:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MLModel.xlsx
+++ b/StructureDefinition-MLModel.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-26T10:36:36+00:00</t>
+    <t>2023-05-26T10:57:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MLModel.xlsx
+++ b/StructureDefinition-MLModel.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-12T12:03:44+00:00</t>
+    <t>2023-06-22T10:40:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -563,7 +563,7 @@
     <t>Unique device identifier (UDI) assigned to device label or package.  Note that the Device may include multiple udiCarriers as it either may include just the udiCarrier for the jurisdiction it is sold, or for multiple jurisdictions it could have been sold.</t>
   </si>
   <si>
-    <t>UDI may identify an unique instance of a device, or it may only identify the type of the device.  See [UDI mappings](device-mappings.html#udi) for a complete mapping of UDI parts to Device.</t>
+    <t>UDI may identify an unique instance of a device, or it may only identify the type of the device.  See [UDI mappings](http://hl7.org/fhir/R5/device-mappings.html#udi) for a complete mapping of UDI parts to Device.</t>
   </si>
   <si>
     <t>.id and .code</t>

--- a/StructureDefinition-MLModel.xlsx
+++ b/StructureDefinition-MLModel.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-22T10:40:10+00:00</t>
+    <t>2023-06-22T11:40:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MLModel.xlsx
+++ b/StructureDefinition-MLModel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="422">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-22T11:40:33+00:00</t>
+    <t>2023-09-10T21:33:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -131,6 +131,10 @@
   </si>
   <si>
     <t>A type of a manufactured item that is used in the provision of healthcare without being substantially changed through that activity. The device may be a medical or non-medical device.</t>
+  </si>
+  <si>
+    <t>dev-1:only one Device.name.display SHALL be true when there is more than one Device.name {name.where(display=true).count() &lt;= 1}
+dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().ofType(canonical) | %resource.descendants().ofType(uri) | %resource.descendants().ofType(url))) or descendants().where(reference = '#').exists() or descendants().where(ofType(canonical) = '#').exists() or descendants().where(ofType(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>administrative.device</t>
@@ -1787,16 +1791,16 @@
         <v>32</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>32</v>
@@ -1804,10 +1808,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1818,7 +1822,7 @@
         <v>33</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>32</v>
@@ -1827,19 +1831,19 @@
         <v>32</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1889,13 +1893,13 @@
         <v>32</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>32</v>
@@ -1918,10 +1922,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1932,7 +1936,7 @@
         <v>33</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>32</v>
@@ -1941,16 +1945,16 @@
         <v>32</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2001,19 +2005,19 @@
         <v>32</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>32</v>
@@ -2030,10 +2034,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2044,7 +2048,7 @@
         <v>33</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>32</v>
@@ -2056,13 +2060,13 @@
         <v>32</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2113,16 +2117,16 @@
         <v>32</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>32</v>
@@ -2131,7 +2135,7 @@
         <v>32</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>32</v>
@@ -2142,14 +2146,14 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -2168,16 +2172,16 @@
         <v>32</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2215,19 +2219,19 @@
         <v>32</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AD5" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>33</v>
@@ -2239,13 +2243,13 @@
         <v>32</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>32</v>
@@ -2256,10 +2260,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2270,7 +2274,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>32</v>
@@ -2279,19 +2283,19 @@
         <v>32</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2341,19 +2345,19 @@
         <v>32</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>32</v>
@@ -2370,10 +2374,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2384,7 +2388,7 @@
         <v>33</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>32</v>
@@ -2393,19 +2397,19 @@
         <v>32</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2455,19 +2459,19 @@
         <v>32</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>32</v>
@@ -2484,10 +2488,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2498,7 +2502,7 @@
         <v>33</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>32</v>
@@ -2507,19 +2511,19 @@
         <v>32</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2569,19 +2573,19 @@
         <v>32</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>32</v>
@@ -2598,10 +2602,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2609,7 +2613,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>34</v>
@@ -2621,19 +2625,19 @@
         <v>32</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2683,7 +2687,7 @@
         <v>32</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>33</v>
@@ -2695,7 +2699,7 @@
         <v>32</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>32</v>
@@ -2712,10 +2716,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2735,19 +2739,19 @@
         <v>32</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2773,13 +2777,13 @@
         <v>32</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>32</v>
@@ -2797,7 +2801,7 @@
         <v>32</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>33</v>
@@ -2809,7 +2813,7 @@
         <v>32</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>32</v>
@@ -2826,10 +2830,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2849,19 +2853,19 @@
         <v>32</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2887,13 +2891,13 @@
         <v>32</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>32</v>
@@ -2911,7 +2915,7 @@
         <v>32</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>33</v>
@@ -2923,7 +2927,7 @@
         <v>32</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>32</v>
@@ -2940,10 +2944,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2954,28 +2958,28 @@
         <v>33</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>32</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3025,19 +3029,19 @@
         <v>32</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>32</v>
@@ -3054,10 +3058,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3068,7 +3072,7 @@
         <v>33</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>32</v>
@@ -3080,16 +3084,16 @@
         <v>32</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3115,13 +3119,13 @@
         <v>32</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>32</v>
@@ -3139,19 +3143,19 @@
         <v>32</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>32</v>
@@ -3168,21 +3172,21 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>33</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>32</v>
@@ -3194,16 +3198,16 @@
         <v>32</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3253,25 +3257,25 @@
         <v>32</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>32</v>
@@ -3282,14 +3286,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3308,16 +3312,16 @@
         <v>32</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3367,7 +3371,7 @@
         <v>32</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>33</v>
@@ -3376,7 +3380,7 @@
         <v>34</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>32</v>
@@ -3385,7 +3389,7 @@
         <v>32</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>32</v>
@@ -3396,14 +3400,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3422,16 +3426,16 @@
         <v>32</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3481,7 +3485,7 @@
         <v>32</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>33</v>
@@ -3493,13 +3497,13 @@
         <v>32</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>32</v>
@@ -3510,14 +3514,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3530,25 +3534,25 @@
         <v>32</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>32</v>
@@ -3597,7 +3601,7 @@
         <v>32</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>33</v>
@@ -3609,13 +3613,13 @@
         <v>32</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>32</v>
@@ -3626,10 +3630,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3637,13 +3641,13 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>34</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>32</v>
@@ -3652,16 +3656,16 @@
         <v>32</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3711,7 +3715,7 @@
         <v>32</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>33</v>
@@ -3723,27 +3727,27 @@
         <v>32</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3754,7 +3758,7 @@
         <v>33</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>32</v>
@@ -3766,13 +3770,13 @@
         <v>32</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3823,19 +3827,19 @@
         <v>32</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>32</v>
@@ -3852,10 +3856,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3866,7 +3870,7 @@
         <v>33</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>32</v>
@@ -3878,13 +3882,13 @@
         <v>32</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3935,19 +3939,19 @@
         <v>32</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>32</v>
@@ -3964,10 +3968,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3987,19 +3991,19 @@
         <v>32</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4049,7 +4053,7 @@
         <v>32</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>33</v>
@@ -4061,13 +4065,13 @@
         <v>32</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>32</v>
@@ -4078,10 +4082,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4092,7 +4096,7 @@
         <v>33</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>32</v>
@@ -4104,13 +4108,13 @@
         <v>32</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4161,16 +4165,16 @@
         <v>32</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>32</v>
@@ -4179,7 +4183,7 @@
         <v>32</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>32</v>
@@ -4190,14 +4194,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4216,16 +4220,16 @@
         <v>32</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4275,7 +4279,7 @@
         <v>32</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>33</v>
@@ -4287,13 +4291,13 @@
         <v>32</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>32</v>
@@ -4304,14 +4308,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4324,25 +4328,25 @@
         <v>32</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>32</v>
@@ -4391,7 +4395,7 @@
         <v>32</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>33</v>
@@ -4403,13 +4407,13 @@
         <v>32</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>32</v>
@@ -4420,21 +4424,21 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>32</v>
@@ -4443,16 +4447,16 @@
         <v>32</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4503,50 +4507,50 @@
         <v>32</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>32</v>
@@ -4555,16 +4559,16 @@
         <v>32</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4615,39 +4619,39 @@
         <v>32</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4658,7 +4662,7 @@
         <v>33</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>32</v>
@@ -4670,17 +4674,17 @@
         <v>32</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>32</v>
@@ -4729,25 +4733,25 @@
         <v>32</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>32</v>
@@ -4758,21 +4762,21 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>33</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>32</v>
@@ -4781,19 +4785,19 @@
         <v>32</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4843,50 +4847,50 @@
         <v>32</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>33</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>32</v>
@@ -4895,19 +4899,19 @@
         <v>32</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4957,39 +4961,39 @@
         <v>32</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5000,7 +5004,7 @@
         <v>33</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>32</v>
@@ -5012,17 +5016,17 @@
         <v>32</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>32</v>
@@ -5047,13 +5051,13 @@
         <v>32</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>32</v>
@@ -5071,25 +5075,25 @@
         <v>32</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>32</v>
@@ -5100,10 +5104,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5111,28 +5115,28 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5159,13 +5163,13 @@
         <v>32</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>32</v>
@@ -5183,28 +5187,28 @@
         <v>32</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>32</v>
@@ -5212,10 +5216,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5226,7 +5230,7 @@
         <v>33</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>32</v>
@@ -5238,13 +5242,13 @@
         <v>32</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5271,13 +5275,13 @@
         <v>32</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>32</v>
@@ -5295,22 +5299,22 @@
         <v>32</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>32</v>
@@ -5324,21 +5328,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>33</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>32</v>
@@ -5350,16 +5354,16 @@
         <v>32</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5409,22 +5413,22 @@
         <v>32</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>32</v>
@@ -5438,10 +5442,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5452,7 +5456,7 @@
         <v>33</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>32</v>
@@ -5464,13 +5468,13 @@
         <v>32</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5521,39 +5525,39 @@
         <v>32</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5564,7 +5568,7 @@
         <v>33</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>32</v>
@@ -5576,13 +5580,13 @@
         <v>32</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5633,39 +5637,39 @@
         <v>32</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5676,7 +5680,7 @@
         <v>33</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>32</v>
@@ -5688,13 +5692,13 @@
         <v>32</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5745,39 +5749,39 @@
         <v>32</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5788,7 +5792,7 @@
         <v>33</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>32</v>
@@ -5800,13 +5804,13 @@
         <v>32</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5857,39 +5861,39 @@
         <v>32</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5900,7 +5904,7 @@
         <v>33</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>32</v>
@@ -5912,16 +5916,16 @@
         <v>32</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5971,25 +5975,25 @@
         <v>32</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>32</v>
@@ -6000,10 +6004,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6026,13 +6030,13 @@
         <v>32</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6083,7 +6087,7 @@
         <v>32</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>33</v>
@@ -6092,10 +6096,10 @@
         <v>34</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>32</v>
@@ -6104,7 +6108,7 @@
         <v>32</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>32</v>
@@ -6112,10 +6116,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6126,7 +6130,7 @@
         <v>33</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>32</v>
@@ -6138,13 +6142,13 @@
         <v>32</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6195,16 +6199,16 @@
         <v>32</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>32</v>
@@ -6213,7 +6217,7 @@
         <v>32</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>32</v>
@@ -6224,14 +6228,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6250,16 +6254,16 @@
         <v>32</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6309,7 +6313,7 @@
         <v>32</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>33</v>
@@ -6321,13 +6325,13 @@
         <v>32</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>32</v>
@@ -6338,14 +6342,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6358,25 +6362,25 @@
         <v>32</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>32</v>
@@ -6425,7 +6429,7 @@
         <v>32</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>33</v>
@@ -6437,13 +6441,13 @@
         <v>32</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>32</v>
@@ -6454,21 +6458,21 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>32</v>
@@ -6477,16 +6481,16 @@
         <v>32</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6537,19 +6541,19 @@
         <v>32</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>32</v>
@@ -6566,10 +6570,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6577,10 +6581,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>32</v>
@@ -6589,16 +6593,16 @@
         <v>32</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6625,13 +6629,13 @@
         <v>32</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>32</v>
@@ -6649,25 +6653,25 @@
         <v>32</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>32</v>
@@ -6678,10 +6682,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6692,25 +6696,25 @@
         <v>33</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>32</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6761,25 +6765,25 @@
         <v>32</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>32</v>
@@ -6790,10 +6794,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6804,7 +6808,7 @@
         <v>33</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>32</v>
@@ -6816,13 +6820,13 @@
         <v>32</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6873,25 +6877,25 @@
         <v>32</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>32</v>
@@ -6902,10 +6906,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6916,7 +6920,7 @@
         <v>33</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>32</v>
@@ -6928,16 +6932,16 @@
         <v>32</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6987,25 +6991,25 @@
         <v>32</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>32</v>
@@ -7016,10 +7020,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7042,13 +7046,13 @@
         <v>32</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7075,13 +7079,13 @@
         <v>32</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>32</v>
@@ -7099,7 +7103,7 @@
         <v>32</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>33</v>
@@ -7111,7 +7115,7 @@
         <v>32</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>32</v>
@@ -7128,10 +7132,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7139,13 +7143,13 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>32</v>
@@ -7154,16 +7158,16 @@
         <v>32</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7189,11 +7193,11 @@
         <v>32</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>32</v>
@@ -7211,7 +7215,7 @@
         <v>32</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>33</v>
@@ -7223,7 +7227,7 @@
         <v>32</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>32</v>
@@ -7240,10 +7244,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7266,13 +7270,13 @@
         <v>32</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7323,7 +7327,7 @@
         <v>32</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>33</v>
@@ -7335,7 +7339,7 @@
         <v>32</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>32</v>
@@ -7352,10 +7356,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7366,7 +7370,7 @@
         <v>33</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>32</v>
@@ -7378,13 +7382,13 @@
         <v>32</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7435,16 +7439,16 @@
         <v>32</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>32</v>
@@ -7453,7 +7457,7 @@
         <v>32</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>32</v>
@@ -7464,14 +7468,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7490,16 +7494,16 @@
         <v>32</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7549,7 +7553,7 @@
         <v>32</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>33</v>
@@ -7561,13 +7565,13 @@
         <v>32</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>32</v>
@@ -7578,14 +7582,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7598,25 +7602,25 @@
         <v>32</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>32</v>
@@ -7665,7 +7669,7 @@
         <v>32</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>33</v>
@@ -7677,13 +7681,13 @@
         <v>32</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>32</v>
@@ -7694,21 +7698,21 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>33</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>32</v>
@@ -7720,13 +7724,13 @@
         <v>32</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7753,13 +7757,13 @@
         <v>32</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>32</v>
@@ -7777,19 +7781,19 @@
         <v>32</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>32</v>
@@ -7806,10 +7810,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7820,7 +7824,7 @@
         <v>33</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>32</v>
@@ -7832,16 +7836,16 @@
         <v>32</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7891,22 +7895,22 @@
         <v>32</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>32</v>
@@ -7920,10 +7924,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7934,7 +7938,7 @@
         <v>33</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>32</v>
@@ -7946,13 +7950,13 @@
         <v>32</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8003,22 +8007,22 @@
         <v>32</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>32</v>
@@ -8032,10 +8036,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8043,13 +8047,13 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>32</v>
@@ -8058,13 +8062,13 @@
         <v>32</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8115,19 +8119,19 @@
         <v>32</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>32</v>
@@ -8144,10 +8148,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8170,13 +8174,13 @@
         <v>32</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8227,7 +8231,7 @@
         <v>32</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>33</v>
@@ -8239,7 +8243,7 @@
         <v>32</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>32</v>
@@ -8256,10 +8260,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8270,7 +8274,7 @@
         <v>33</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>32</v>
@@ -8282,13 +8286,13 @@
         <v>32</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8339,16 +8343,16 @@
         <v>32</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>32</v>
@@ -8357,7 +8361,7 @@
         <v>32</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>32</v>
@@ -8368,14 +8372,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8394,16 +8398,16 @@
         <v>32</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8453,7 +8457,7 @@
         <v>32</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>33</v>
@@ -8465,13 +8469,13 @@
         <v>32</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>32</v>
@@ -8482,14 +8486,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8502,25 +8506,25 @@
         <v>32</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>32</v>
@@ -8569,7 +8573,7 @@
         <v>32</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>33</v>
@@ -8581,13 +8585,13 @@
         <v>32</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>32</v>
@@ -8598,10 +8602,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8612,7 +8616,7 @@
         <v>33</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>32</v>
@@ -8624,13 +8628,13 @@
         <v>32</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8657,13 +8661,13 @@
         <v>32</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>32</v>
@@ -8681,19 +8685,19 @@
         <v>32</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>32</v>
@@ -8710,10 +8714,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8721,10 +8725,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>32</v>
@@ -8736,13 +8740,13 @@
         <v>32</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8769,13 +8773,13 @@
         <v>32</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>32</v>
@@ -8793,19 +8797,19 @@
         <v>32</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>32</v>
@@ -8822,10 +8826,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8836,7 +8840,7 @@
         <v>33</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>32</v>
@@ -8848,13 +8852,13 @@
         <v>32</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8905,19 +8909,19 @@
         <v>32</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>32</v>
@@ -8934,10 +8938,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8960,16 +8964,16 @@
         <v>32</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9019,7 +9023,7 @@
         <v>32</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>33</v>
@@ -9031,7 +9035,7 @@
         <v>32</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>32</v>
@@ -9048,10 +9052,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9062,7 +9066,7 @@
         <v>33</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>32</v>
@@ -9074,13 +9078,13 @@
         <v>32</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9131,16 +9135,16 @@
         <v>32</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>32</v>
@@ -9149,7 +9153,7 @@
         <v>32</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>32</v>
@@ -9160,14 +9164,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9186,16 +9190,16 @@
         <v>32</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9245,7 +9249,7 @@
         <v>32</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>33</v>
@@ -9257,13 +9261,13 @@
         <v>32</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>32</v>
@@ -9274,14 +9278,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9294,25 +9298,25 @@
         <v>32</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>32</v>
@@ -9361,7 +9365,7 @@
         <v>32</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>33</v>
@@ -9373,13 +9377,13 @@
         <v>32</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>32</v>
@@ -9390,10 +9394,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9401,10 +9405,10 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>32</v>
@@ -9416,13 +9420,13 @@
         <v>32</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9449,13 +9453,13 @@
         <v>32</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>32</v>
@@ -9473,19 +9477,19 @@
         <v>32</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>32</v>
@@ -9502,10 +9506,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9513,10 +9517,10 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>32</v>
@@ -9528,16 +9532,16 @@
         <v>32</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9587,19 +9591,19 @@
         <v>32</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>32</v>
@@ -9616,10 +9620,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9630,7 +9634,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>32</v>
@@ -9642,13 +9646,13 @@
         <v>32</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9675,13 +9679,13 @@
         <v>32</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>32</v>
@@ -9699,19 +9703,19 @@
         <v>32</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>32</v>
@@ -9728,10 +9732,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9742,7 +9746,7 @@
         <v>33</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>32</v>
@@ -9754,13 +9758,13 @@
         <v>32</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9811,19 +9815,19 @@
         <v>32</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>32</v>
@@ -9840,10 +9844,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9854,7 +9858,7 @@
         <v>33</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>32</v>
@@ -9866,13 +9870,13 @@
         <v>32</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9923,19 +9927,19 @@
         <v>32</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>32</v>
@@ -9952,10 +9956,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9966,7 +9970,7 @@
         <v>33</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>32</v>
@@ -9978,13 +9982,13 @@
         <v>32</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10035,25 +10039,25 @@
         <v>32</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>32</v>
@@ -10064,10 +10068,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10090,16 +10094,16 @@
         <v>32</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10149,7 +10153,7 @@
         <v>32</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>33</v>
@@ -10161,13 +10165,13 @@
         <v>32</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>32</v>
@@ -10178,10 +10182,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10192,7 +10196,7 @@
         <v>33</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>32</v>
@@ -10204,17 +10208,17 @@
         <v>32</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>32</v>
@@ -10263,25 +10267,25 @@
         <v>32</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>32</v>
@@ -10292,10 +10296,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10306,7 +10310,7 @@
         <v>33</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>32</v>
@@ -10318,16 +10322,16 @@
         <v>32</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10377,25 +10381,25 @@
         <v>32</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>32</v>
@@ -10406,10 +10410,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10432,13 +10436,13 @@
         <v>32</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10489,7 +10493,7 @@
         <v>32</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>33</v>
@@ -10501,13 +10505,13 @@
         <v>32</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>32</v>
@@ -10518,10 +10522,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10544,16 +10548,16 @@
         <v>32</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10603,7 +10607,7 @@
         <v>32</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>33</v>
@@ -10615,7 +10619,7 @@
         <v>32</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>32</v>
@@ -10632,10 +10636,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10658,13 +10662,13 @@
         <v>32</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10715,7 +10719,7 @@
         <v>32</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>33</v>
@@ -10727,13 +10731,13 @@
         <v>32</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>32</v>
@@ -10744,10 +10748,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10767,16 +10771,16 @@
         <v>32</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10803,11 +10807,11 @@
         <v>32</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y81" s="2"/>
       <c r="Z81" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>32</v>
@@ -10825,7 +10829,7 @@
         <v>32</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>33</v>
@@ -10837,13 +10841,13 @@
         <v>32</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>32</v>
@@ -10854,10 +10858,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10868,7 +10872,7 @@
         <v>33</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>32</v>
@@ -10880,16 +10884,16 @@
         <v>32</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -10939,19 +10943,19 @@
         <v>32</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>32</v>
